--- a/doc/Bericht/04_Technischer Bericht/03_Vorstudie/Frageboegen_Statistik.xlsx
+++ b/doc/Bericht/04_Technischer Bericht/03_Vorstudie/Frageboegen_Statistik.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="20835" windowHeight="12015" tabRatio="622" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20835" windowHeight="12015" tabRatio="622"/>
   </bookViews>
   <sheets>
     <sheet name="Alle Abteilungen" sheetId="2" r:id="rId1"/>
@@ -589,11 +589,22 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29324399876380985"/>
+          <c:y val="0.14733674498143162"/>
+          <c:w val="0.38105392571829416"/>
+          <c:h val="0.85266325501856843"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -1175,11 +1186,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="105362560"/>
-        <c:axId val="105364096"/>
+        <c:axId val="113579520"/>
+        <c:axId val="113581056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105362560"/>
+        <c:axId val="113579520"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1189,7 +1200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105364096"/>
+        <c:crossAx val="113581056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1198,7 +1209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105364096"/>
+        <c:axId val="113581056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1261,7 +1272,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105362560"/>
+        <c:crossAx val="113579520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1270,6 +1281,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1279,7 +1291,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1348,6 +1360,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1610,11 +1623,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="111796224"/>
-        <c:axId val="111797760"/>
+        <c:axId val="115052928"/>
+        <c:axId val="115054464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111796224"/>
+        <c:axId val="115052928"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1624,7 +1637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111797760"/>
+        <c:crossAx val="115054464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1633,7 +1646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111797760"/>
+        <c:axId val="115054464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1696,7 +1709,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111796224"/>
+        <c:crossAx val="115052928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1705,6 +1718,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1749,6 +1763,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1849,11 +1864,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="104740736"/>
-        <c:axId val="104742272"/>
+        <c:axId val="115067136"/>
+        <c:axId val="115408896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104740736"/>
+        <c:axId val="115067136"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1863,7 +1878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104742272"/>
+        <c:crossAx val="115408896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1872,7 +1887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104742272"/>
+        <c:axId val="115408896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1935,7 +1950,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104740736"/>
+        <c:crossAx val="115067136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1944,6 +1959,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1993,6 +2009,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2450,8 +2467,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="116518912"/>
-        <c:axId val="116520832"/>
+        <c:axId val="115470720"/>
+        <c:axId val="115472640"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2568,11 +2585,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116518912"/>
-        <c:axId val="116520832"/>
+        <c:axId val="115470720"/>
+        <c:axId val="115472640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116518912"/>
+        <c:axId val="115470720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2581,7 +2598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116520832"/>
+        <c:crossAx val="115472640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2589,7 +2606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116520832"/>
+        <c:axId val="115472640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2769,7 +2786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116518912"/>
+        <c:crossAx val="115470720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2868,6 +2885,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3211,11 +3229,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="106825600"/>
-        <c:axId val="106827136"/>
+        <c:axId val="115525888"/>
+        <c:axId val="115539968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106825600"/>
+        <c:axId val="115525888"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3225,7 +3243,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106827136"/>
+        <c:crossAx val="115539968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3234,7 +3252,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106827136"/>
+        <c:axId val="115539968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3297,7 +3315,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106825600"/>
+        <c:crossAx val="115525888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3306,6 +3324,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3350,6 +3369,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3450,11 +3470,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="106864640"/>
-        <c:axId val="106866176"/>
+        <c:axId val="115569024"/>
+        <c:axId val="115570560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106864640"/>
+        <c:axId val="115569024"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3464,7 +3484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106866176"/>
+        <c:crossAx val="115570560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3473,7 +3493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106866176"/>
+        <c:axId val="115570560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3536,7 +3556,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106864640"/>
+        <c:crossAx val="115569024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3545,6 +3565,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3591,6 +3612,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4048,8 +4070,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="106915712"/>
-        <c:axId val="106938368"/>
+        <c:axId val="115943680"/>
+        <c:axId val="115958144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -4166,11 +4188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106915712"/>
-        <c:axId val="106938368"/>
+        <c:axId val="115943680"/>
+        <c:axId val="115958144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106915712"/>
+        <c:axId val="115943680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4179,7 +4201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106938368"/>
+        <c:crossAx val="115958144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4187,7 +4209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106938368"/>
+        <c:axId val="115958144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4367,7 +4389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106915712"/>
+        <c:crossAx val="115943680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4439,6 +4461,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4782,11 +4805,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="107011456"/>
-        <c:axId val="107017344"/>
+        <c:axId val="112959488"/>
+        <c:axId val="112961024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107011456"/>
+        <c:axId val="112959488"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4796,7 +4819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107017344"/>
+        <c:crossAx val="112961024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4805,7 +4828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107017344"/>
+        <c:axId val="112961024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4868,7 +4891,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107011456"/>
+        <c:crossAx val="112959488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4877,6 +4900,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4921,6 +4945,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5021,11 +5046,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="111977984"/>
-        <c:axId val="111979520"/>
+        <c:axId val="115980160"/>
+        <c:axId val="115981696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111977984"/>
+        <c:axId val="115980160"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5035,7 +5060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111979520"/>
+        <c:crossAx val="115981696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5044,7 +5069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111979520"/>
+        <c:axId val="115981696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5107,7 +5132,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111977984"/>
+        <c:crossAx val="115980160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5116,6 +5141,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5162,6 +5188,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5619,8 +5646,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="116874624"/>
-        <c:axId val="116889088"/>
+        <c:axId val="113045504"/>
+        <c:axId val="113047424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -5737,11 +5764,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116874624"/>
-        <c:axId val="116889088"/>
+        <c:axId val="113045504"/>
+        <c:axId val="113047424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116874624"/>
+        <c:axId val="113045504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5750,7 +5777,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116889088"/>
+        <c:crossAx val="113047424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5758,7 +5785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116889088"/>
+        <c:axId val="113047424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5938,7 +5965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116874624"/>
+        <c:crossAx val="113045504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6039,6 +6066,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6301,11 +6329,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116609408"/>
-        <c:axId val="116610944"/>
+        <c:axId val="115737344"/>
+        <c:axId val="115738880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116609408"/>
+        <c:axId val="115737344"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6315,7 +6343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116610944"/>
+        <c:crossAx val="115738880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6324,7 +6352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116610944"/>
+        <c:axId val="115738880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -6387,7 +6415,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116609408"/>
+        <c:crossAx val="115737344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6396,6 +6424,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6472,6 +6501,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6572,11 +6602,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="107057152"/>
-        <c:axId val="107058688"/>
+        <c:axId val="114172288"/>
+        <c:axId val="114173824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107057152"/>
+        <c:axId val="114172288"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6586,7 +6616,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107058688"/>
+        <c:crossAx val="114173824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6595,7 +6625,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107058688"/>
+        <c:axId val="114173824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -6658,7 +6688,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107057152"/>
+        <c:crossAx val="114172288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6712,6 +6742,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6812,11 +6843,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116627712"/>
-        <c:axId val="116645888"/>
+        <c:axId val="115755648"/>
+        <c:axId val="115782016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116627712"/>
+        <c:axId val="115755648"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6826,7 +6857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116645888"/>
+        <c:crossAx val="115782016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6835,7 +6866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116645888"/>
+        <c:axId val="115782016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -6898,7 +6929,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116627712"/>
+        <c:crossAx val="115755648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6907,6 +6938,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7427,8 +7459,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="116765056"/>
-        <c:axId val="116766976"/>
+        <c:axId val="115831552"/>
+        <c:axId val="115833472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -7545,11 +7577,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116765056"/>
-        <c:axId val="116766976"/>
+        <c:axId val="115831552"/>
+        <c:axId val="115833472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116765056"/>
+        <c:axId val="115831552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7558,7 +7590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116766976"/>
+        <c:crossAx val="115833472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7566,7 +7598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116766976"/>
+        <c:axId val="115833472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -7746,7 +7778,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116765056"/>
+        <c:crossAx val="115831552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7824,6 +7856,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8071,11 +8104,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="117053696"/>
-        <c:axId val="117055488"/>
+        <c:axId val="116378240"/>
+        <c:axId val="116388224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117053696"/>
+        <c:axId val="116378240"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8085,7 +8118,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117055488"/>
+        <c:crossAx val="116388224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8094,7 +8127,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117055488"/>
+        <c:axId val="116388224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -8157,7 +8190,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117053696"/>
+        <c:crossAx val="116378240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8166,6 +8199,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8210,6 +8244,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8310,11 +8345,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="117072256"/>
-        <c:axId val="117073792"/>
+        <c:axId val="116421376"/>
+        <c:axId val="116422912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117072256"/>
+        <c:axId val="116421376"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8324,7 +8359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117073792"/>
+        <c:crossAx val="116422912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8333,7 +8368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117073792"/>
+        <c:axId val="116422912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -8396,7 +8431,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117072256"/>
+        <c:crossAx val="116421376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8405,6 +8440,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8922,8 +8958,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="117139712"/>
-        <c:axId val="117154176"/>
+        <c:axId val="118037120"/>
+        <c:axId val="118055680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -9040,11 +9076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117139712"/>
-        <c:axId val="117154176"/>
+        <c:axId val="118037120"/>
+        <c:axId val="118055680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117139712"/>
+        <c:axId val="118037120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9053,7 +9089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117154176"/>
+        <c:crossAx val="118055680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9061,7 +9097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117154176"/>
+        <c:axId val="118055680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -9241,7 +9277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117139712"/>
+        <c:crossAx val="118037120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -9313,6 +9349,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9770,8 +9807,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="109970944"/>
-        <c:axId val="109972864"/>
+        <c:axId val="114218880"/>
+        <c:axId val="114229248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -9888,11 +9925,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109970944"/>
-        <c:axId val="109972864"/>
+        <c:axId val="114218880"/>
+        <c:axId val="114229248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109970944"/>
+        <c:axId val="114218880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9901,7 +9938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109972864"/>
+        <c:crossAx val="114229248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9909,7 +9946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109972864"/>
+        <c:axId val="114229248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -10089,7 +10126,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109970944"/>
+        <c:crossAx val="114218880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -10190,6 +10227,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10452,11 +10490,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="110061824"/>
-        <c:axId val="110067712"/>
+        <c:axId val="114301568"/>
+        <c:axId val="114303360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110061824"/>
+        <c:axId val="114301568"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -10466,7 +10504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110067712"/>
+        <c:crossAx val="114303360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10475,7 +10513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110067712"/>
+        <c:axId val="114303360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -10538,7 +10576,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110061824"/>
+        <c:crossAx val="114301568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -10547,6 +10585,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10591,6 +10630,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10691,11 +10731,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="110098304"/>
-        <c:axId val="110099840"/>
+        <c:axId val="114344704"/>
+        <c:axId val="114346240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110098304"/>
+        <c:axId val="114344704"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -10705,7 +10745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110099840"/>
+        <c:crossAx val="114346240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10714,7 +10754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110099840"/>
+        <c:axId val="114346240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -10777,7 +10817,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110098304"/>
+        <c:crossAx val="114344704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -10786,6 +10826,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10835,6 +10876,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11292,8 +11334,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="111534464"/>
-        <c:axId val="111536384"/>
+        <c:axId val="114715264"/>
+        <c:axId val="114729728"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -11410,11 +11452,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111534464"/>
-        <c:axId val="111536384"/>
+        <c:axId val="114715264"/>
+        <c:axId val="114729728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111534464"/>
+        <c:axId val="114715264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11423,7 +11465,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111536384"/>
+        <c:crossAx val="114729728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11431,7 +11473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111536384"/>
+        <c:axId val="114729728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -11611,7 +11653,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111534464"/>
+        <c:crossAx val="114715264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -12056,11 +12098,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="111599616"/>
-        <c:axId val="111601152"/>
+        <c:axId val="114786304"/>
+        <c:axId val="114787840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111599616"/>
+        <c:axId val="114786304"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -12070,7 +12112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111601152"/>
+        <c:crossAx val="114787840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12079,7 +12121,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111601152"/>
+        <c:axId val="114787840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -12142,7 +12184,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111599616"/>
+        <c:crossAx val="114786304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -12297,11 +12339,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="111622016"/>
-        <c:axId val="111623552"/>
+        <c:axId val="115095424"/>
+        <c:axId val="115096960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111622016"/>
+        <c:axId val="115095424"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -12311,7 +12353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111623552"/>
+        <c:crossAx val="115096960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12320,7 +12362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111623552"/>
+        <c:axId val="115096960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -12383,7 +12425,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111622016"/>
+        <c:crossAx val="115095424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -12897,8 +12939,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="116481408"/>
-        <c:axId val="116487680"/>
+        <c:axId val="115142656"/>
+        <c:axId val="115144576"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -13015,11 +13057,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116481408"/>
-        <c:axId val="116487680"/>
+        <c:axId val="115142656"/>
+        <c:axId val="115144576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116481408"/>
+        <c:axId val="115142656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13028,7 +13070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116487680"/>
+        <c:crossAx val="115144576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13036,7 +13078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116487680"/>
+        <c:axId val="115144576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -13215,7 +13257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116481408"/>
+        <c:crossAx val="115142656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -14347,8 +14389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ID72"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AK37" sqref="AK37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20934,8 +20976,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20943,7 +20985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM45"/>
   <sheetViews>
-    <sheetView topLeftCell="AB13" workbookViewId="0">
+    <sheetView zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:Z11"/>
     </sheetView>
   </sheetViews>
@@ -23336,8 +23378,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -23345,7 +23387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD17" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="X11" sqref="B3:X11"/>
     </sheetView>
   </sheetViews>
@@ -25936,8 +25978,8 @@
     <mergeCell ref="B14:AA14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -25945,7 +25987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView topLeftCell="AB13" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:V11"/>
     </sheetView>
   </sheetViews>
@@ -28105,8 +28147,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -28114,7 +28156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:AD11"/>
     </sheetView>
   </sheetViews>
@@ -30977,8 +31019,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="37" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -30986,7 +31028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI69"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:AW11"/>
     </sheetView>
   </sheetViews>
@@ -34876,8 +34918,8 @@
     <mergeCell ref="B13:AZ13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="32" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -34885,7 +34927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="U11" sqref="B3:U11"/>
     </sheetView>
   </sheetViews>
@@ -36930,8 +36972,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -36939,7 +36981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX45"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ16" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AY47" sqref="AY47"/>
     </sheetView>
   </sheetViews>
@@ -40333,7 +40375,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>